--- a/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/ExportRawMaterialNutList.xlsx
+++ b/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/ExportRawMaterialNutList.xlsx
@@ -9,14 +9,19 @@
   </bookViews>
   <sheets>
     <sheet name="Produits" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Coûts" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Nutriments" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="Unspecified"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>TYPE</t>
   </si>
@@ -72,28 +77,79 @@
     <t>Libellé légal</t>
   </si>
   <si>
-    <t>bcpg:costList</t>
-  </si>
-  <si>
-    <t>bcpg:costListCost</t>
-  </si>
-  <si>
-    <t>bcpg:costListValue</t>
-  </si>
-  <si>
-    <t>bcpg:costListUnit</t>
-  </si>
-  <si>
-    <t>Produit</t>
-  </si>
-  <si>
-    <t>Coût</t>
+    <t>bcpg:nutList</t>
+  </si>
+  <si>
+    <t>bcpg:depthLevel</t>
+  </si>
+  <si>
+    <t>bcpg:nutListNut</t>
+  </si>
+  <si>
+    <t>bcpg:nutListValue</t>
+  </si>
+  <si>
+    <t>bcpg:nutListFormulatedValue</t>
+  </si>
+  <si>
+    <t>bcpg:nutListUnit</t>
+  </si>
+  <si>
+    <t>bcpg:nutListMini</t>
+  </si>
+  <si>
+    <t>bcpg:nutListMaxi</t>
+  </si>
+  <si>
+    <t>bcpg:nutListValuePerServing</t>
+  </si>
+  <si>
+    <t>bcpg:nutListGDAPerc</t>
+  </si>
+  <si>
+    <t>bcpg:nutListLossPerc</t>
+  </si>
+  <si>
+    <t>bcpg:nutListGroup</t>
+  </si>
+  <si>
+    <t>bcpg:nutListMethod</t>
+  </si>
+  <si>
+    <t>Niveau</t>
+  </si>
+  <si>
+    <t>Nutriment</t>
   </si>
   <si>
     <t>Valeur</t>
   </si>
   <si>
+    <t>Valeur calculée</t>
+  </si>
+  <si>
     <t>Unité</t>
+  </si>
+  <si>
+    <t>Mini</t>
+  </si>
+  <si>
+    <t>Maxi</t>
+  </si>
+  <si>
+    <t>1 portion</t>
+  </si>
+  <si>
+    <t>% AJR pour 1 portion</t>
+  </si>
+  <si>
+    <t>% perte</t>
+  </si>
+  <si>
+    <t>Groupe</t>
+  </si>
+  <si>
+    <t>Méthode</t>
   </si>
 </sst>
 </file>
@@ -103,7 +159,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -124,6 +180,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -174,12 +237,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -264,19 +331,17 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0102040816326"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5867346938776"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.8979591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.0612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.5867346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.1530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.4132653061224"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -356,19 +421,19 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.7551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="37.3" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -376,38 +441,86 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="7.45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="30.55" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>25</v>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/ExportRawMaterialNutList.xlsx
+++ b/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/ExportRawMaterialNutList.xlsx
@@ -11,10 +11,14 @@
     <sheet name="Produits" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Nutriments" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Nutriments!$B$3:$M$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Produits!$B$3:$H$3</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="Unspecified"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -322,6 +326,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -331,17 +343,19 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.1530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.75"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -405,6 +419,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B3:H3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -412,6 +427,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -424,13 +440,13 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.3" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -524,6 +540,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B3:M3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -531,5 +548,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>